--- a/homicidiosMulheresPais.xlsx
+++ b/homicidiosMulheresPais.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zsg-k\IdeaProjects\Excel-Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zsg-k\IdeaProjects\guiExample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F1302B-3223-4D23-9E4F-9DF9F92F3703}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE02011-C595-4036-A074-DB3CEC1733BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -591,13 +591,13 @@
     <xf numFmtId="39" fontId="18" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -663,7 +663,49 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="#,##0.00;\-#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,##0.00;\-#,##0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -734,7 +776,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="#,##0.00;\-#,##0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -809,7 +851,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="#,##0.00;\-#,##0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -870,6 +912,40 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="3"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -885,7 +961,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="#,##0.00;\-#,##0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -927,7 +1003,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="#,##0.00;\-#,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -961,83 +1037,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="#,##0.00;\-#,##0.00"/>
+      <numFmt numFmtId="165" formatCode="#,##0.00;\-#,##0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -1274,12 +1274,12 @@
     <tableColumn id="2" xr3:uid="{613E47C3-BCD7-4C3D-B82A-2C02B940EDF6}" name="Valor" headerRowDxfId="14" dataDxfId="13" totalsRowDxfId="12"/>
     <tableColumn id="3" xr3:uid="{2F7DF93F-5F89-4742-95BE-BF2F2050C57C}" name="Média Aritmética" headerRowDxfId="11" dataDxfId="10" dataCellStyle="Título 3"/>
     <tableColumn id="4" xr3:uid="{40F86F83-B705-4D33-9BE2-08EA6CDD6955}" name="Desvio Médio" headerRowDxfId="9" dataDxfId="8" dataCellStyle="Título 3"/>
-    <tableColumn id="5" xr3:uid="{FD5ADF8E-B58B-4BF8-9D55-BAF903B9430E}" name="Desvio Padrão" headerRowDxfId="7" dataDxfId="6" dataCellStyle="Título 3"/>
-    <tableColumn id="6" xr3:uid="{259509E2-F116-4593-83D9-4FDD739400FE}" name="Variância Populacional" headerRowDxfId="5" dataDxfId="4" dataCellStyle="Título 3"/>
-    <tableColumn id="7" xr3:uid="{B11CE543-81F4-4019-A1DF-00AEC041D81C}" name="Coeficiente de Variação" headerRowDxfId="3" dataDxfId="2" dataCellStyle="Título 3">
+    <tableColumn id="5" xr3:uid="{FD5ADF8E-B58B-4BF8-9D55-BAF903B9430E}" name="Desvio Padrão" headerRowDxfId="7" dataDxfId="0" dataCellStyle="Título 3"/>
+    <tableColumn id="6" xr3:uid="{259509E2-F116-4593-83D9-4FDD739400FE}" name="Variância Populacional" headerRowDxfId="6" dataDxfId="5" dataCellStyle="Título 3"/>
+    <tableColumn id="7" xr3:uid="{B11CE543-81F4-4019-A1DF-00AEC041D81C}" name="Coeficiente de Variação" headerRowDxfId="4" dataDxfId="3" dataCellStyle="Título 3">
       <calculatedColumnFormula>E1/C1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{30F564BB-D919-4C39-8292-188326F25527}" name="Variância Amostral" headerRowDxfId="1" dataDxfId="0" dataCellStyle="Título 3"/>
+    <tableColumn id="8" xr3:uid="{30F564BB-D919-4C39-8292-188326F25527}" name="Variância Amostral" headerRowDxfId="2" dataDxfId="1" dataCellStyle="Título 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1584,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H39" activeCellId="5" sqref="C39 D39 E39 F39 G39 H39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2144,20 +2144,19 @@
         <v>3241.3846153846152</v>
       </c>
       <c r="D39" s="10">
-        <f>AVEDEV(B1:B39)</f>
-        <v>1017.6489151873759</v>
+        <f>MEDIAN(B1:B39)</f>
+        <v>3588</v>
       </c>
       <c r="E39" s="10">
+        <v>0</v>
+      </c>
+      <c r="F39" s="10">
         <f>_xlfn.STDEV.P(B1:B39)</f>
         <v>1143.88433195473</v>
       </c>
-      <c r="F39" s="10">
+      <c r="G39" s="10">
         <f>_xlfn.VAR.P(B1:B39)</f>
         <v>1308471.3648915188</v>
-      </c>
-      <c r="G39" s="10">
-        <f>E39/C39</f>
-        <v>0.35289990781269853</v>
       </c>
       <c r="H39" s="11">
         <f>_xlfn.VAR.S(B1:B39)</f>
